--- a/results/mp/logistic/corona/confidence/126/desired-masking-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/desired-masking-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="140">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,81 +46,87 @@
     <t>war</t>
   </si>
   <si>
+    <t>complaints</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>crash</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
     <t>arrested</t>
   </si>
   <si>
-    <t>complaints</t>
-  </si>
-  <si>
-    <t>crude</t>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>fraud</t>
   </si>
   <si>
     <t>kill</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>death</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>crash</t>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>infected</t>
   </si>
   <si>
     <t>died</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
     <t>problem</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>slash</t>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>disgusting</t>
+  </si>
+  <si>
+    <t>sc</t>
   </si>
   <si>
     <t>lowest</t>
   </si>
   <si>
-    <t>infected</t>
-  </si>
-  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -130,87 +136,87 @@
     <t>worse</t>
   </si>
   <si>
-    <t>recession</t>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>ridiculous</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>lower</t>
   </si>
   <si>
     <t>shit</t>
   </si>
   <si>
-    <t>shame</t>
-  </si>
-  <si>
     <t>sick</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>cancelled</t>
-  </si>
-  <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>lower</t>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>cut</t>
   </si>
   <si>
     <t>saudi</t>
   </si>
   <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>fight</t>
   </si>
   <si>
     <t>isolation</t>
   </si>
   <si>
+    <t>empty</t>
+  </si>
+  <si>
     <t>stop</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>risk</t>
+    <t>demand</t>
   </si>
   <si>
     <t>oil</t>
   </si>
   <si>
-    <t>demand</t>
-  </si>
-  <si>
     <t>of</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
     <t>.</t>
   </si>
   <si>
-    <t>the</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -226,190 +232,208 @@
     <t>best</t>
   </si>
   <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>sharing</t>
+    <t>support</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>wow</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>create</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
     <t>friends</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
     <t>won</t>
   </si>
   <si>
-    <t>fresh</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>gt</t>
   </si>
   <si>
     <t>ensure</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
     <t>save</t>
   </si>
   <si>
-    <t>create</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>god</t>
   </si>
   <si>
-    <t>help</t>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>share</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>giving</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>growth</t>
+    <t>huge</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
     <t>boost</t>
   </si>
   <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>alert</t>
   </si>
   <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>security</t>
   </si>
   <si>
-    <t>clean</t>
+    <t>easter</t>
+  </si>
+  <si>
+    <t>helping</t>
   </si>
   <si>
     <t>sure</t>
   </si>
   <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>easter</t>
+    <t>give</t>
   </si>
   <si>
     <t>data</t>
   </si>
   <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>give</t>
+    <t>check</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>shop</t>
   </si>
   <si>
     <t>you</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>and</t>
   </si>
 </sst>
 </file>
@@ -767,7 +791,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q69"/>
+  <dimension ref="A1:Q77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -775,7 +799,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J1" t="s">
         <v>86</v>
@@ -857,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -907,7 +931,7 @@
         <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K4">
         <v>0.9696969696969697</v>
@@ -936,13 +960,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9333333333333333</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -957,16 +981,16 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K5">
-        <v>0.95</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="L5">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M5">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -978,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -986,13 +1010,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9285714285714286</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="C6">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1004,10 +1028,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K6">
         <v>0.9491525423728814</v>
@@ -1036,13 +1060,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9117647058823529</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1054,19 +1078,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K7">
-        <v>0.9444444444444444</v>
+        <v>0.9375</v>
       </c>
       <c r="L7">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M7">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1086,13 +1110,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8947368421052632</v>
+        <v>0.875</v>
       </c>
       <c r="C8">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1107,16 +1131,16 @@
         <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K8">
-        <v>0.9375</v>
+        <v>0.9242819843342036</v>
       </c>
       <c r="L8">
-        <v>15</v>
+        <v>354</v>
       </c>
       <c r="M8">
-        <v>15</v>
+        <v>354</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1128,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1136,13 +1160,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8918918918918919</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="C9">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1154,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K9">
-        <v>0.9333333333333333</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L9">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="M9">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1178,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1186,13 +1210,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8695652173913043</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1204,31 +1228,31 @@
         <v>0</v>
       </c>
       <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="L10">
+        <v>33</v>
+      </c>
+      <c r="M10">
+        <v>33</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>3</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K10">
-        <v>0.9230769230769231</v>
-      </c>
-      <c r="L10">
-        <v>24</v>
-      </c>
-      <c r="M10">
-        <v>24</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1257,16 +1281,16 @@
         <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K11">
-        <v>0.9190600522193212</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L11">
-        <v>352</v>
+        <v>20</v>
       </c>
       <c r="M11">
-        <v>352</v>
+        <v>20</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1278,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1307,16 +1331,16 @@
         <v>40</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K12">
-        <v>0.9166666666666666</v>
+        <v>0.9069767441860465</v>
       </c>
       <c r="L12">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="M12">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1328,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1336,13 +1360,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.8333333333333334</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="C13">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D13">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1357,16 +1381,16 @@
         <v>5</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K13">
-        <v>0.9090909090909091</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L13">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M13">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1386,13 +1410,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.8333333333333334</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C14">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D14">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1404,19 +1428,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K14">
-        <v>0.9084507042253521</v>
+        <v>0.8943661971830986</v>
       </c>
       <c r="L14">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M14">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1428,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1436,13 +1460,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.8275862068965517</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C15">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1457,16 +1481,16 @@
         <v>5</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K15">
-        <v>0.9069767441860465</v>
+        <v>0.8936170212765957</v>
       </c>
       <c r="L15">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M15">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1478,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1486,13 +1510,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.8125</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C16">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D16">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1504,19 +1528,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K16">
-        <v>0.8947368421052632</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L16">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="M16">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1528,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1536,13 +1560,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.8076923076923077</v>
+        <v>0.8</v>
       </c>
       <c r="C17">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1557,16 +1581,16 @@
         <v>5</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K17">
-        <v>0.8936170212765957</v>
+        <v>0.890625</v>
       </c>
       <c r="L17">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="M17">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1578,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1586,13 +1610,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="C18">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D18">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1604,19 +1628,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K18">
-        <v>0.8928571428571429</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L18">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="M18">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1628,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1636,13 +1660,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.8</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="C19">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D19">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1654,19 +1678,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K19">
-        <v>0.8875</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L19">
-        <v>142</v>
+        <v>16</v>
       </c>
       <c r="M19">
-        <v>142</v>
+        <v>16</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1678,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1686,13 +1710,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.7826086956521739</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="C20">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D20">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1704,19 +1728,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K20">
-        <v>0.8828125</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="L20">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="M20">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1728,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1736,13 +1760,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.7647058823529411</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C21">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D21">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1754,19 +1778,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K21">
-        <v>0.8773584905660378</v>
+        <v>0.8793103448275862</v>
       </c>
       <c r="L21">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="M21">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1778,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1786,13 +1810,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.7391304347826086</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C22">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D22">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1804,19 +1828,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K22">
-        <v>0.8611111111111112</v>
+        <v>0.875</v>
       </c>
       <c r="L22">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="M22">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1828,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1836,13 +1860,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.7368421052631579</v>
+        <v>0.7073643410852714</v>
       </c>
       <c r="C23">
-        <v>14</v>
+        <v>365</v>
       </c>
       <c r="D23">
-        <v>14</v>
+        <v>365</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1854,19 +1878,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>5</v>
+        <v>151</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K23">
-        <v>0.8448275862068966</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L23">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M23">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1878,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1886,13 +1910,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.7254901960784313</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C24">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D24">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1904,19 +1928,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K24">
-        <v>0.8414634146341463</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L24">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M24">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1928,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1939,35 +1963,35 @@
         <v>0.7</v>
       </c>
       <c r="C25">
+        <v>21</v>
+      </c>
+      <c r="D25">
+        <v>21</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>9</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K25">
+        <v>0.8235294117647058</v>
+      </c>
+      <c r="L25">
         <v>14</v>
       </c>
-      <c r="D25">
+      <c r="M25">
         <v>14</v>
       </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>6</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K25">
-        <v>0.8214285714285714</v>
-      </c>
-      <c r="L25">
-        <v>23</v>
-      </c>
-      <c r="M25">
-        <v>23</v>
-      </c>
       <c r="N25">
         <v>1</v>
       </c>
@@ -1978,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1986,13 +2010,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.6996124031007752</v>
+        <v>0.7</v>
       </c>
       <c r="C26">
-        <v>361</v>
+        <v>14</v>
       </c>
       <c r="D26">
-        <v>361</v>
+        <v>14</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2004,19 +2028,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>155</v>
+        <v>6</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K26">
-        <v>0.8095238095238095</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L26">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="M26">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2028,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2036,13 +2060,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.671957671957672</v>
+        <v>0.6949152542372882</v>
       </c>
       <c r="C27">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="D27">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2054,19 +2078,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K27">
-        <v>0.7948717948717948</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L27">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M27">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2078,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2086,13 +2110,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.65</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C28">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D28">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2104,19 +2128,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K28">
-        <v>0.7916666666666666</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="L28">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="M28">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2128,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2136,13 +2160,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.6440677966101694</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C29">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="D29">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2154,19 +2178,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K29">
         <v>0.7916666666666666</v>
       </c>
       <c r="L29">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="M29">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2178,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2186,28 +2210,28 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.6375838926174496</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C30">
+        <v>15</v>
+      </c>
+      <c r="D30">
+        <v>15</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>8</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="D30">
-        <v>95</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>54</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="K30">
         <v>0.7777777777777778</v>
@@ -2236,13 +2260,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.6296296296296297</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C31">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D31">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2254,10 +2278,10 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K31">
         <v>0.7727272727272727</v>
@@ -2286,13 +2310,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.625</v>
+        <v>0.6308724832214765</v>
       </c>
       <c r="C32">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="D32">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2304,31 +2328,31 @@
         <v>0</v>
       </c>
       <c r="H32">
+        <v>55</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K32">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="L32">
+        <v>30</v>
+      </c>
+      <c r="M32">
+        <v>30</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
         <v>9</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K32">
-        <v>0.7714285714285715</v>
-      </c>
-      <c r="L32">
-        <v>27</v>
-      </c>
-      <c r="M32">
-        <v>27</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2336,13 +2360,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.6129032258064516</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="C33">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D33">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2354,19 +2378,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K33">
-        <v>0.7647058823529411</v>
+        <v>0.7676470588235295</v>
       </c>
       <c r="L33">
-        <v>13</v>
+        <v>261</v>
       </c>
       <c r="M33">
-        <v>13</v>
+        <v>261</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2378,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2386,13 +2410,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.5897435897435898</v>
+        <v>0.625</v>
       </c>
       <c r="C34">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D34">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2404,19 +2428,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K34">
-        <v>0.7588235294117647</v>
+        <v>0.75</v>
       </c>
       <c r="L34">
-        <v>258</v>
+        <v>30</v>
       </c>
       <c r="M34">
-        <v>258</v>
+        <v>30</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2428,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>82</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2436,13 +2460,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.5675675675675675</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C35">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D35">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2454,10 +2478,10 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K35">
         <v>0.75</v>
@@ -2486,13 +2510,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.5625</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C36">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D36">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2504,19 +2528,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K36">
-        <v>0.7423728813559322</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="L36">
-        <v>219</v>
+        <v>26</v>
       </c>
       <c r="M36">
-        <v>219</v>
+        <v>26</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2528,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>76</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2536,13 +2560,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.5611111111111111</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C37">
-        <v>202</v>
+        <v>16</v>
       </c>
       <c r="D37">
-        <v>202</v>
+        <v>16</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2554,19 +2578,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K37">
-        <v>0.74</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L37">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="M37">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2578,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2586,13 +2610,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.5555555555555556</v>
+        <v>0.5916666666666667</v>
       </c>
       <c r="C38">
-        <v>20</v>
+        <v>213</v>
       </c>
       <c r="D38">
-        <v>20</v>
+        <v>213</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2604,19 +2628,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K38">
-        <v>0.7142857142857143</v>
+        <v>0.7254237288135593</v>
       </c>
       <c r="L38">
-        <v>20</v>
+        <v>214</v>
       </c>
       <c r="M38">
-        <v>20</v>
+        <v>214</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2628,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>8</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2636,13 +2660,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.5384615384615384</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="C39">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D39">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2654,19 +2678,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K39">
-        <v>0.7071129707112971</v>
+        <v>0.7196652719665272</v>
       </c>
       <c r="L39">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M39">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2678,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2686,13 +2710,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.5384615384615384</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="C40">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D40">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2704,19 +2728,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K40">
-        <v>0.7037037037037037</v>
+        <v>0.7191011235955056</v>
       </c>
       <c r="L40">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="M40">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2728,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2736,13 +2760,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.5178571428571429</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="C41">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D41">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2754,19 +2778,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K41">
-        <v>0.7</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L41">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="M41">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2778,7 +2802,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2786,13 +2810,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.5161290322580645</v>
+        <v>0.5636363636363636</v>
       </c>
       <c r="C42">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D42">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2804,19 +2828,19 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K42">
-        <v>0.6956521739130435</v>
+        <v>0.7127659574468085</v>
       </c>
       <c r="L42">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="M42">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2828,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2836,13 +2860,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.4838709677419355</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="C43">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D43">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2854,19 +2878,19 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K43">
-        <v>0.6923076923076923</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L43">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M43">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2878,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2886,13 +2910,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.48</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C44">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D44">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2904,19 +2928,19 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K44">
-        <v>0.6914893617021277</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L44">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="M44">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2928,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2936,13 +2960,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.4666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="C45">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D45">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2957,16 +2981,16 @@
         <v>16</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K45">
-        <v>0.6857142857142857</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L45">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="M45">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2978,7 +3002,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2986,13 +3010,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.4363636363636363</v>
+        <v>0.4933333333333333</v>
       </c>
       <c r="C46">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D46">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3004,19 +3028,19 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K46">
-        <v>0.6842105263157895</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="L46">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M46">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -3028,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3036,13 +3060,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.4358974358974359</v>
+        <v>0.4909090909090909</v>
       </c>
       <c r="C47">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D47">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3054,19 +3078,19 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K47">
-        <v>0.6741573033707865</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L47">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="M47">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -3078,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3086,13 +3110,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.3818181818181818</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="C48">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D48">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3104,19 +3128,19 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K48">
         <v>0.6666666666666666</v>
       </c>
       <c r="L48">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="M48">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -3128,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3136,13 +3160,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.35</v>
+        <v>0.3766233766233766</v>
       </c>
       <c r="C49">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D49">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3154,19 +3178,19 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K49">
-        <v>0.6615384615384615</v>
+        <v>0.6461538461538462</v>
       </c>
       <c r="L49">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M49">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -3178,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3186,13 +3210,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.3137254901960784</v>
+        <v>0.35</v>
       </c>
       <c r="C50">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D50">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3204,19 +3228,19 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K50">
-        <v>0.6470588235294118</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L50">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="M50">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -3228,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3236,13 +3260,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.3134920634920635</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C51">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="D51">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3254,31 +3278,31 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>173</v>
+        <v>34</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K51">
-        <v>0.6428571428571429</v>
+        <v>0.64</v>
       </c>
       <c r="L51">
+        <v>32</v>
+      </c>
+      <c r="M51">
+        <v>32</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51">
         <v>18</v>
-      </c>
-      <c r="M51">
-        <v>18</v>
-      </c>
-      <c r="N51">
-        <v>1</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3286,13 +3310,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.3</v>
+        <v>0.3222222222222222</v>
       </c>
       <c r="C52">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D52">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3304,19 +3328,19 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K52">
-        <v>0.6222222222222222</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L52">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="M52">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -3328,7 +3352,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3336,13 +3360,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.2875</v>
+        <v>0.3174603174603174</v>
       </c>
       <c r="C53">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="D53">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3354,19 +3378,19 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>57</v>
+        <v>172</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K53">
-        <v>0.6086956521739131</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L53">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M53">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -3378,7 +3402,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -3386,13 +3410,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.2727272727272727</v>
+        <v>0.1876675603217158</v>
       </c>
       <c r="C54">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="D54">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3404,19 +3428,19 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>56</v>
+        <v>303</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K54">
-        <v>0.5952380952380952</v>
+        <v>0.6</v>
       </c>
       <c r="L54">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M54">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3428,7 +3452,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -3436,13 +3460,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.08666666666666667</v>
+        <v>0.09333333333333334</v>
       </c>
       <c r="C55">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D55">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3454,19 +3478,19 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K55">
-        <v>0.5925925925925926</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L55">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M55">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3478,7 +3502,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -3486,37 +3510,37 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.08310991957104558</v>
+        <v>0.0118043844856661</v>
       </c>
       <c r="C56">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D56">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56">
-        <v>342</v>
+        <v>2344</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K56">
-        <v>0.5833333333333334</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L56">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M56">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -3528,7 +3552,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -3536,37 +3560,37 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.005471380471380472</v>
+        <v>0.006071929005137786</v>
       </c>
       <c r="C57">
         <v>13</v>
       </c>
       <c r="D57">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E57">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="F57">
-        <v>0.8100000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
       </c>
       <c r="H57">
-        <v>2363</v>
+        <v>2128</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K57">
-        <v>0.5616438356164384</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L57">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M57">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -3578,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -3586,37 +3610,37 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.003810669875651825</v>
+        <v>0.005798969072164949</v>
       </c>
       <c r="C58">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D58">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E58">
-        <v>0.34</v>
+        <v>0.14</v>
       </c>
       <c r="F58">
-        <v>0.6599999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="G58" t="b">
         <v>1</v>
       </c>
       <c r="H58">
-        <v>4967</v>
+        <v>3086</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K58">
-        <v>0.5416666666666666</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="L58">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M58">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -3628,7 +3652,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -3636,28 +3660,28 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.0025237817899437</v>
+        <v>0.003882741215298</v>
       </c>
       <c r="C59">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D59">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E59">
-        <v>0.52</v>
+        <v>0.41</v>
       </c>
       <c r="F59">
-        <v>0.48</v>
+        <v>0.5900000000000001</v>
       </c>
       <c r="G59" t="b">
         <v>1</v>
       </c>
       <c r="H59">
-        <v>5138</v>
+        <v>5131</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K59">
         <v>0.5256410256410257</v>
@@ -3682,17 +3706,41 @@
       </c>
     </row>
     <row r="60" spans="1:17">
+      <c r="A60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60">
+        <v>0.003247506379030387</v>
+      </c>
+      <c r="C60">
+        <v>14</v>
+      </c>
+      <c r="D60">
+        <v>31</v>
+      </c>
+      <c r="E60">
+        <v>0.55</v>
+      </c>
+      <c r="F60">
+        <v>0.45</v>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>4297</v>
+      </c>
       <c r="J60" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K60">
-        <v>0.5</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L60">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M60">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -3704,21 +3752,45 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:17">
+      <c r="A61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61">
+        <v>0.002812939521800281</v>
+      </c>
+      <c r="C61">
+        <v>14</v>
+      </c>
+      <c r="D61">
+        <v>33</v>
+      </c>
+      <c r="E61">
+        <v>0.58</v>
+      </c>
+      <c r="F61">
+        <v>0.42</v>
+      </c>
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>4963</v>
+      </c>
       <c r="J61" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K61">
-        <v>0.4838709677419355</v>
+        <v>0.5068493150684932</v>
       </c>
       <c r="L61">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="M61">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -3730,21 +3802,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" spans="1:17">
       <c r="J62" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K62">
-        <v>0.453125</v>
+        <v>0.5</v>
       </c>
       <c r="L62">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M62">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3756,21 +3828,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:17">
       <c r="J63" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K63">
-        <v>0.423728813559322</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="L63">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="M63">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -3782,21 +3854,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:17">
       <c r="J64" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K64">
-        <v>0.4193548387096774</v>
+        <v>0.4067796610169492</v>
       </c>
       <c r="L64">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M64">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -3808,15 +3880,15 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K65">
-        <v>0.3859649122807017</v>
+        <v>0.34375</v>
       </c>
       <c r="L65">
         <v>22</v>
@@ -3834,21 +3906,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K66">
-        <v>0.3823529411764706</v>
+        <v>0.2950819672131147</v>
       </c>
       <c r="L66">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M66">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -3860,21 +3932,21 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K67">
-        <v>0.2786885245901639</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="L67">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M67">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -3886,21 +3958,21 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K68">
-        <v>0.0125</v>
+        <v>0.2018348623853211</v>
       </c>
       <c r="L68">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M68">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -3912,33 +3984,241 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>1185</v>
+        <v>87</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K69">
+        <v>0.1612903225806452</v>
+      </c>
+      <c r="L69">
+        <v>20</v>
+      </c>
+      <c r="M69">
+        <v>20</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="70" spans="10:17">
+      <c r="J70" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K70">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="L70">
+        <v>13</v>
+      </c>
+      <c r="M70">
+        <v>13</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="71" spans="10:17">
+      <c r="J71" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K71">
+        <v>0.08648648648648649</v>
+      </c>
+      <c r="L71">
+        <v>16</v>
+      </c>
+      <c r="M71">
+        <v>16</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="72" spans="10:17">
+      <c r="J72" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K72">
+        <v>0.03005008347245409</v>
+      </c>
+      <c r="L72">
+        <v>36</v>
+      </c>
+      <c r="M72">
+        <v>38</v>
+      </c>
+      <c r="N72">
+        <v>0.95</v>
+      </c>
+      <c r="O72">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P72" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q72">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="73" spans="10:17">
+      <c r="J73" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K73">
+        <v>0.006270903010033445</v>
+      </c>
+      <c r="L73">
+        <v>15</v>
+      </c>
+      <c r="M73">
+        <v>17</v>
+      </c>
+      <c r="N73">
+        <v>0.88</v>
+      </c>
+      <c r="O73">
+        <v>0.12</v>
+      </c>
+      <c r="P73" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="74" spans="10:17">
+      <c r="J74" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K74">
+        <v>0.004874390701162355</v>
+      </c>
+      <c r="L74">
+        <v>13</v>
+      </c>
+      <c r="M74">
+        <v>19</v>
+      </c>
+      <c r="N74">
+        <v>0.68</v>
+      </c>
+      <c r="O74">
+        <v>0.32</v>
+      </c>
+      <c r="P74" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="75" spans="10:17">
+      <c r="J75" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K75">
+        <v>0.003940658321743162</v>
+      </c>
+      <c r="L75">
+        <v>17</v>
+      </c>
+      <c r="M75">
+        <v>31</v>
+      </c>
+      <c r="N75">
+        <v>0.55</v>
+      </c>
+      <c r="O75">
+        <v>0.45</v>
+      </c>
+      <c r="P75" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q75">
+        <v>4297</v>
+      </c>
+    </row>
+    <row r="76" spans="10:17">
+      <c r="J76" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K76">
+        <v>0.00381372942593336</v>
+      </c>
+      <c r="L76">
+        <v>19</v>
+      </c>
+      <c r="M76">
+        <v>33</v>
+      </c>
+      <c r="N76">
+        <v>0.58</v>
+      </c>
+      <c r="O76">
+        <v>0.42</v>
+      </c>
+      <c r="P76" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q76">
+        <v>4963</v>
+      </c>
+    </row>
+    <row r="77" spans="10:17">
+      <c r="J77" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K69">
-        <v>0.002717391304347826</v>
-      </c>
-      <c r="L69">
+      <c r="K77">
+        <v>0.002721088435374149</v>
+      </c>
+      <c r="L77">
         <v>14</v>
       </c>
-      <c r="M69">
-        <v>27</v>
-      </c>
-      <c r="N69">
-        <v>0.52</v>
-      </c>
-      <c r="O69">
-        <v>0.48</v>
-      </c>
-      <c r="P69" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q69">
-        <v>5138</v>
+      <c r="M77">
+        <v>34</v>
+      </c>
+      <c r="N77">
+        <v>0.41</v>
+      </c>
+      <c r="O77">
+        <v>0.5900000000000001</v>
+      </c>
+      <c r="P77" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q77">
+        <v>5131</v>
       </c>
     </row>
   </sheetData>
